--- a/dataset_v1/task_sheet_answers/VelocityDisplacement/5_VelocityDisplacement/5_VelocityDisplacement_gt2.xlsx
+++ b/dataset_v1/task_sheet_answers/VelocityDisplacement/5_VelocityDisplacement/5_VelocityDisplacement_gt2.xlsx
@@ -1,72 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MAC\Home\Downloads\workspace\output_dataset_last111\85_VelocityDisplacement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F25491E-8E7F-4FBA-BA88-387AAC4C18A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{47F3A61D-7D01-41A8-A8AD-9BE614C27802}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15675" windowWidth="28996" xWindow="-98" yWindow="-98"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Displacement m</t>
-  </si>
-  <si>
-    <t>Velocity m/s</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
   </numFmts>
   <fonts count="3">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,32 +60,92 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{087427A1-D555-426D-9014-84AE26EC7651}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1611D966-948A-45BC-AF52-6ACAF6C2665C}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,190 +445,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B8B627-960C-4019-9E6F-464CC13DD3F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
-    <col min="2" max="2" width="14.53125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="15.19921875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="14.53125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Displacement m</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Velocity m/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>240</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>